--- a/dirlit/webpage/17stars1.xlsx
+++ b/dirlit/webpage/17stars1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
   <si>
     <t xml:space="preserve">Paper ID</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">Yashodhan</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Alex</t>
+  </si>
+  <si>
     <t xml:space="preserve">-1_-4</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t xml:space="preserve">Not sure what is happening, there seems to be some periodicity, need input.</t>
   </si>
   <si>
+    <t xml:space="preserve">good LB star</t>
+  </si>
+  <si>
     <t xml:space="preserve">00_-3</t>
   </si>
   <si>
@@ -166,6 +172,9 @@
     <t xml:space="preserve">The ZTF match is too far, so ignore the data from ZTF. Looks like an L in our data.</t>
   </si>
   <si>
+    <t xml:space="preserve">not var</t>
+  </si>
+  <si>
     <t xml:space="preserve">22 41 47.89 +50 17 10.8</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t xml:space="preserve">awesome</t>
   </si>
   <si>
+    <t xml:space="preserve">good. Known as var after ATLAS (?).</t>
+  </si>
+  <si>
     <t xml:space="preserve">01_-5</t>
   </si>
   <si>
@@ -217,6 +229,9 @@
     <t xml:space="preserve">A little weak case, but periodicity is seen in all data.</t>
   </si>
   <si>
+    <t xml:space="preserve">dubious, but keep it.</t>
+  </si>
+  <si>
     <t xml:space="preserve">02_-3</t>
   </si>
   <si>
@@ -226,6 +241,9 @@
     <t xml:space="preserve">16-17</t>
   </si>
   <si>
+    <t xml:space="preserve">dubious, but keep it. </t>
+  </si>
+  <si>
     <t xml:space="preserve">02_-4</t>
   </si>
   <si>
@@ -253,6 +271,9 @@
     <t xml:space="preserve">Good L</t>
   </si>
   <si>
+    <t xml:space="preserve">keep marked as LB:</t>
+  </si>
+  <si>
     <t xml:space="preserve">00_-5</t>
   </si>
   <si>
@@ -271,10 +292,13 @@
     <t xml:space="preserve">very interesting, in the flare image the star is actually different</t>
   </si>
   <si>
-    <t xml:space="preserve">Ignore the lightcurve and periodogram here, they are of another star(s) entirely (hence the *). Near this star, in our data we see a flare/nova in some images. Prof. Samus' comment: "very interesting, in the flare image the star is actually different"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 36 17.66 +56 48 04.7</t>
+    <t xml:space="preserve">There was another star near this star, this star is not variable. Nothing worth a publication was found even after going through all the photographs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a blend of two stars, red and blue. Not var at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 36 17.66 +56 48 04.7</t>
   </si>
   <si>
     <t xml:space="preserve">16.3-17.6</t>
@@ -289,6 +313,9 @@
     <t xml:space="preserve">Looks like EW, star not found in ZTF.</t>
   </si>
   <si>
+    <t xml:space="preserve">great EB star with P = 0.595753 d.</t>
+  </si>
+  <si>
     <t xml:space="preserve">02_05</t>
   </si>
   <si>
@@ -320,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">15.2-15.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good LB. J-K = 11.375 - 10.557 = 0.818..  https://ztf.snad.space/dr17/view/804211100018212</t>
   </si>
   <si>
     <t xml:space="preserve">22 53 01.41 +48 55 32.6</t>
@@ -475,17 +505,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,6 +570,9 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
@@ -549,10 +582,10 @@
         <v>4186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.02</v>
@@ -567,31 +600,34 @@
         <v>0.55</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0.4</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>8</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,10 +638,10 @@
         <v>349</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.02</v>
@@ -620,34 +656,37 @@
         <v>0.46</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -655,47 +694,50 @@
         <v>1681</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.04</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0.49</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>1.06</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>8</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,50 +748,53 @@
         <v>4088</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.269</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>8</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
@@ -757,10 +802,10 @@
         <v>3944</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.06</v>
@@ -775,34 +820,37 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="4" t="n">
         <v>0.3</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>8</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
@@ -810,50 +858,53 @@
         <v>2639</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.01</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>8</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
@@ -861,10 +912,10 @@
         <v>1070</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0.06</v>
@@ -873,40 +924,43 @@
         <v>2.59</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N8" s="4" t="n">
         <v>8</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
@@ -914,10 +968,10 @@
         <v>494</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.08</v>
@@ -932,19 +986,19 @@
         <v>1.33</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0.3</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>8</v>
@@ -952,10 +1006,13 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
@@ -963,10 +1020,10 @@
         <v>4139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.06</v>
@@ -975,25 +1032,25 @@
         <v>1.12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>1.12</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0.3</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>8</v>
@@ -1001,10 +1058,13 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
@@ -1012,50 +1072,53 @@
         <v>20182</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0.58</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N11" s="4" t="n">
         <v>7</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
@@ -1063,47 +1126,50 @@
         <v>20213</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.528</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N12" s="4" t="n">
         <v>7</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,52 +1180,55 @@
         <v>2881</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>0.59</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L13" s="4" t="n">
         <v>0.39</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="4" t="n">
         <v>7</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
@@ -1167,10 +1236,10 @@
         <v>219</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0.09</v>
@@ -1179,25 +1248,25 @@
         <v>0.125</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L14" s="4" t="n">
         <v>0.367</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>7</v>
@@ -1205,10 +1274,13 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
@@ -1216,37 +1288,37 @@
         <v>2081</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>0.99</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L15" s="4" t="n">
         <v>0.7</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="N15" s="4" t="n">
         <v>7</v>
@@ -1254,10 +1326,13 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
@@ -1265,35 +1340,35 @@
         <v>1714</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N16" s="4" t="n">
         <v>7</v>
@@ -1301,10 +1376,13 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
@@ -1312,10 +1390,10 @@
         <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.08</v>
@@ -1324,25 +1402,25 @@
         <v>1.99</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="L17" s="4" t="n">
         <v>0.65</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>6</v>
@@ -1350,10 +1428,13 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
@@ -1361,10 +1442,10 @@
         <v>136</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.01</v>
@@ -1373,35 +1454,38 @@
         <v>4000</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0.14</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N18" s="4" t="n">
         <v>5</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4351,6 +4435,9 @@
       <c r="Q1000" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R16" r:id="rId1" display="https://ztf.snad.space/dr17/view/804211100018212"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/dirlit/webpage/17stars1.xlsx
+++ b/dirlit/webpage/17stars1.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t xml:space="preserve">Paper ID</t>
   </si>
@@ -34,6 +35,9 @@
     <t xml:space="preserve">Coordinates (J2000)</t>
   </si>
   <si>
+    <t xml:space="preserve">Coordinates deg (J2000)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Distance in arcsec on SNAD</t>
   </si>
   <si>
@@ -82,6 +86,9 @@
     <t xml:space="preserve">22 34 48.43 +57 07 10.2</t>
   </si>
   <si>
+    <t xml:space="preserve">338.7017917    57.1195000</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
@@ -109,6 +116,9 @@
     <t xml:space="preserve">22 42 37.33 +50 37 37.7</t>
   </si>
   <si>
+    <t xml:space="preserve">340.6555417    50.6271389</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multiple</t>
   </si>
   <si>
@@ -127,6 +137,9 @@
     <t xml:space="preserve">22 42 16.89 +50 04 04.6</t>
   </si>
   <si>
+    <t xml:space="preserve">340.5703750    50.0679444</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.99(!)</t>
   </si>
   <si>
@@ -157,6 +170,9 @@
     <t xml:space="preserve">22 45 24.41 +56 16 51.5</t>
   </si>
   <si>
+    <t xml:space="preserve">341.3517083    56.2809722</t>
+  </si>
+  <si>
     <t xml:space="preserve">Long period</t>
   </si>
   <si>
@@ -178,6 +194,9 @@
     <t xml:space="preserve">22 41 47.89 +50 17 10.8</t>
   </si>
   <si>
+    <t xml:space="preserve">340.4495417    50.2863333</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.2-15.8</t>
   </si>
   <si>
@@ -199,6 +218,9 @@
     <t xml:space="preserve">22 51 05.66 +57 33 21.1</t>
   </si>
   <si>
+    <t xml:space="preserve">342.7735833    57.5558611</t>
+  </si>
+  <si>
     <t xml:space="preserve">14-14.4</t>
   </si>
   <si>
@@ -211,6 +233,9 @@
     <t xml:space="preserve">22 48 55.09 +57 15 19.8</t>
   </si>
   <si>
+    <t xml:space="preserve">342.2295417    57.2555000</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.1,0.3,2.59</t>
   </si>
   <si>
@@ -238,6 +263,9 @@
     <t xml:space="preserve">22 56 35.78 +55 26 53.9</t>
   </si>
   <si>
+    <t xml:space="preserve">344.1490833    55.4483056</t>
+  </si>
+  <si>
     <t xml:space="preserve">16-17</t>
   </si>
   <si>
@@ -250,6 +278,9 @@
     <t xml:space="preserve">22 52 36.28 +56 54 54.1</t>
   </si>
   <si>
+    <t xml:space="preserve">343.1511667    56.9150278</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.6-16.2</t>
   </si>
   <si>
@@ -259,6 +290,9 @@
     <t xml:space="preserve">22 38 28.08 +57 19 18.3</t>
   </si>
   <si>
+    <t xml:space="preserve">339.6170000    57.3217500</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irregular</t>
   </si>
   <si>
@@ -280,6 +314,9 @@
     <t xml:space="preserve">*22 42 20.77 +57 38 26.6</t>
   </si>
   <si>
+    <t xml:space="preserve">340.5865417    57.6407222</t>
+  </si>
+  <si>
     <t xml:space="preserve">flare</t>
   </si>
   <si>
@@ -301,6 +338,9 @@
     <t xml:space="preserve">22 36 17.66 +56 48 04.7</t>
   </si>
   <si>
+    <t xml:space="preserve">339.0735833    56.8013056</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.3-17.6</t>
   </si>
   <si>
@@ -322,6 +362,9 @@
     <t xml:space="preserve">22 52 53.13 +48 57 16.8</t>
   </si>
   <si>
+    <t xml:space="preserve">343.2213750    48.9546667</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.8-15.6</t>
   </si>
   <si>
@@ -331,6 +374,9 @@
     <t xml:space="preserve">22 52 14.33 +49 34 14.9</t>
   </si>
   <si>
+    <t xml:space="preserve">343.0597083    49.5708056</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.8-13</t>
   </si>
   <si>
@@ -343,6 +389,9 @@
     <t xml:space="preserve">22 57 45.30 +56 24 24.6</t>
   </si>
   <si>
+    <t xml:space="preserve">344.4387500    56.4068333</t>
+  </si>
+  <si>
     <t xml:space="preserve">slow irregular</t>
   </si>
   <si>
@@ -355,6 +404,9 @@
     <t xml:space="preserve">22 53 01.41 +48 55 32.6</t>
   </si>
   <si>
+    <t xml:space="preserve">343.2558750    48.9257222</t>
+  </si>
+  <si>
     <t xml:space="preserve">13-14.5</t>
   </si>
   <si>
@@ -364,6 +416,9 @@
     <t xml:space="preserve">22 43 32.35 +48 58 20.4</t>
   </si>
   <si>
+    <t xml:space="preserve">340.8847917    48.9723333</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.8-15.1</t>
   </si>
   <si>
@@ -371,6 +426,117 @@
   </si>
   <si>
     <t xml:space="preserve">Seemed like an L in our data, seems normal in ZTF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 2007659858120992896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 34 48.43, +57 07 10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpa_data_star_1.dat,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 1989573201075344384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 42 37.33, +50 37 37.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 1989476753287806720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 42 16.89, +50 04 04.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 1989494998308806784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 41 47.89, +50 17 10.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 2007164768650338816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 51 05.66, +57 33 21.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 2007136799822425600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 48 55.09, +57 15 19.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 2002954188866388096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 56 35.78, +55 26 53.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 2007290422213768192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 38 28.08, +57 19 18.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 2006886386051006464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 36 17.66, +56 48 04.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR3 2009804111948440064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 57 45.30, +56 24 24.6</t>
   </si>
 </sst>
 </file>
@@ -386,7 +552,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -408,7 +573,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -459,13 +623,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -478,6 +650,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -505,3938 +681,3994 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="0" sqref="Q18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="6" t="n">
         <v>4186</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="G2" s="6" t="n">
         <v>0.55</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="H2" s="6" t="n">
         <v>0.55</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="I2" s="6" t="n">
         <v>0.55</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>349</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>349</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="S3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>1681</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>4088</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>3944</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>2639</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>494</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>20182</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>1681</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>20213</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>2881</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>4088</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="O13" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>219</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>2081</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>1714</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>3944</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="P18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2639</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1070</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>494</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>4139</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>20182</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>20213</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>2881</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>219</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>2081</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>1714</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>136</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q19" s="6"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q20" s="6"/>
+      <c r="R20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q21" s="6"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q22" s="6"/>
+      <c r="R22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q23" s="6"/>
+      <c r="R23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q24" s="6"/>
+      <c r="R24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q25" s="6"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q26" s="6"/>
+      <c r="R26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q27" s="6"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q28" s="6"/>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q29" s="6"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q30" s="6"/>
+      <c r="R30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q31" s="6"/>
+      <c r="R31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q32" s="6"/>
+      <c r="R32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q33" s="6"/>
+      <c r="R33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q34" s="6"/>
+      <c r="R34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q35" s="6"/>
+      <c r="R35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q36" s="6"/>
+      <c r="R36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q37" s="6"/>
+      <c r="R37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q38" s="6"/>
+      <c r="R38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q39" s="6"/>
+      <c r="R39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q40" s="6"/>
+      <c r="R40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q41" s="6"/>
+      <c r="R41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q42" s="6"/>
+      <c r="R42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q43" s="6"/>
+      <c r="R43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q44" s="6"/>
+      <c r="R44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q45" s="6"/>
+      <c r="R45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q46" s="6"/>
+      <c r="R46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q47" s="6"/>
+      <c r="R47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q48" s="6"/>
+      <c r="R48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q49" s="6"/>
+      <c r="R49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q50" s="6"/>
+      <c r="R50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q51" s="6"/>
+      <c r="R51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q52" s="6"/>
+      <c r="R52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q53" s="6"/>
+      <c r="R53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q54" s="6"/>
+      <c r="R54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q55" s="6"/>
+      <c r="R55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q56" s="6"/>
+      <c r="R56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q57" s="6"/>
+      <c r="R57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q58" s="6"/>
+      <c r="R58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q59" s="6"/>
+      <c r="R59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q60" s="6"/>
+      <c r="R60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q61" s="6"/>
+      <c r="R61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q62" s="6"/>
+      <c r="R62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q63" s="6"/>
+      <c r="R63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q64" s="6"/>
+      <c r="R64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q65" s="6"/>
+      <c r="R65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q66" s="6"/>
+      <c r="R66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q67" s="6"/>
+      <c r="R67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q68" s="6"/>
+      <c r="R68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q69" s="6"/>
+      <c r="R69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q70" s="6"/>
+      <c r="R70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q71" s="6"/>
+      <c r="R71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q72" s="6"/>
+      <c r="R72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q73" s="6"/>
+      <c r="R73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q74" s="6"/>
+      <c r="R74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q75" s="6"/>
+      <c r="R75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q76" s="6"/>
+      <c r="R76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q77" s="6"/>
+      <c r="R77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q78" s="6"/>
+      <c r="R78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q79" s="6"/>
+      <c r="R79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q80" s="6"/>
+      <c r="R80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q81" s="6"/>
+      <c r="R81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q82" s="6"/>
+      <c r="R82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q83" s="6"/>
+      <c r="R83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q84" s="6"/>
+      <c r="R84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q85" s="6"/>
+      <c r="R85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q86" s="6"/>
+      <c r="R86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q87" s="6"/>
+      <c r="R87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q88" s="6"/>
+      <c r="R88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q89" s="6"/>
+      <c r="R89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q90" s="6"/>
+      <c r="R90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q91" s="6"/>
+      <c r="R91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q92" s="6"/>
+      <c r="R92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q93" s="6"/>
+      <c r="R93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q94" s="6"/>
+      <c r="R94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q95" s="6"/>
+      <c r="R95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q96" s="6"/>
+      <c r="R96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q97" s="6"/>
+      <c r="R97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q98" s="6"/>
+      <c r="R98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q99" s="6"/>
+      <c r="R99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q100" s="6"/>
+      <c r="R100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q101" s="6"/>
+      <c r="R101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q102" s="6"/>
+      <c r="R102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q103" s="6"/>
+      <c r="R103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q104" s="6"/>
+      <c r="R104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q105" s="6"/>
+      <c r="R105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q106" s="6"/>
+      <c r="R106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q107" s="6"/>
+      <c r="R107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q108" s="6"/>
+      <c r="R108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q109" s="6"/>
+      <c r="R109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q110" s="6"/>
+      <c r="R110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q111" s="6"/>
+      <c r="R111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q112" s="6"/>
+      <c r="R112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q113" s="6"/>
+      <c r="R113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q114" s="6"/>
+      <c r="R114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q115" s="6"/>
+      <c r="R115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q116" s="6"/>
+      <c r="R116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q117" s="6"/>
+      <c r="R117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q118" s="6"/>
+      <c r="R118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q119" s="6"/>
+      <c r="R119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q120" s="6"/>
+      <c r="R120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q121" s="6"/>
+      <c r="R121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q122" s="6"/>
+      <c r="R122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q123" s="6"/>
+      <c r="R123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q124" s="6"/>
+      <c r="R124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q125" s="6"/>
+      <c r="R125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q126" s="6"/>
+      <c r="R126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q127" s="6"/>
+      <c r="R127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q128" s="6"/>
+      <c r="R128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q129" s="6"/>
+      <c r="R129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q130" s="6"/>
+      <c r="R130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q131" s="6"/>
+      <c r="R131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q132" s="6"/>
+      <c r="R132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q133" s="6"/>
+      <c r="R133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q134" s="6"/>
+      <c r="R134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q135" s="6"/>
+      <c r="R135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q136" s="6"/>
+      <c r="R136" s="9"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q137" s="6"/>
+      <c r="R137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q138" s="6"/>
+      <c r="R138" s="9"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q139" s="6"/>
+      <c r="R139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q140" s="6"/>
+      <c r="R140" s="9"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q141" s="6"/>
+      <c r="R141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q142" s="6"/>
+      <c r="R142" s="9"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q143" s="6"/>
+      <c r="R143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q144" s="6"/>
+      <c r="R144" s="9"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q145" s="6"/>
+      <c r="R145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q146" s="6"/>
+      <c r="R146" s="9"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q147" s="6"/>
+      <c r="R147" s="9"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q148" s="6"/>
+      <c r="R148" s="9"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q149" s="6"/>
+      <c r="R149" s="9"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q150" s="6"/>
+      <c r="R150" s="9"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q151" s="6"/>
+      <c r="R151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q152" s="6"/>
+      <c r="R152" s="9"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q153" s="6"/>
+      <c r="R153" s="9"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q154" s="6"/>
+      <c r="R154" s="9"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q155" s="6"/>
+      <c r="R155" s="9"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q156" s="6"/>
+      <c r="R156" s="9"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q157" s="6"/>
+      <c r="R157" s="9"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q158" s="6"/>
+      <c r="R158" s="9"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q159" s="6"/>
+      <c r="R159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q160" s="6"/>
+      <c r="R160" s="9"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q161" s="6"/>
+      <c r="R161" s="9"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q162" s="6"/>
+      <c r="R162" s="9"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q163" s="6"/>
+      <c r="R163" s="9"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q164" s="6"/>
+      <c r="R164" s="9"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q165" s="6"/>
+      <c r="R165" s="9"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q166" s="6"/>
+      <c r="R166" s="9"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q167" s="6"/>
+      <c r="R167" s="9"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q168" s="6"/>
+      <c r="R168" s="9"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q169" s="6"/>
+      <c r="R169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q170" s="6"/>
+      <c r="R170" s="9"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q171" s="6"/>
+      <c r="R171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q172" s="6"/>
+      <c r="R172" s="9"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q173" s="6"/>
+      <c r="R173" s="9"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q174" s="6"/>
+      <c r="R174" s="9"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q175" s="6"/>
+      <c r="R175" s="9"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q176" s="6"/>
+      <c r="R176" s="9"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q177" s="6"/>
+      <c r="R177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q178" s="6"/>
+      <c r="R178" s="9"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q179" s="6"/>
+      <c r="R179" s="9"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q180" s="6"/>
+      <c r="R180" s="9"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q181" s="6"/>
+      <c r="R181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q182" s="6"/>
+      <c r="R182" s="9"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q183" s="6"/>
+      <c r="R183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q184" s="6"/>
+      <c r="R184" s="9"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q185" s="6"/>
+      <c r="R185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q186" s="6"/>
+      <c r="R186" s="9"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q187" s="6"/>
+      <c r="R187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q188" s="6"/>
+      <c r="R188" s="9"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q189" s="6"/>
+      <c r="R189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q190" s="6"/>
+      <c r="R190" s="9"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q191" s="6"/>
+      <c r="R191" s="9"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q192" s="6"/>
+      <c r="R192" s="9"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q193" s="6"/>
+      <c r="R193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q194" s="6"/>
+      <c r="R194" s="9"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q195" s="6"/>
+      <c r="R195" s="9"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q196" s="6"/>
+      <c r="R196" s="9"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q197" s="6"/>
+      <c r="R197" s="9"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q198" s="6"/>
+      <c r="R198" s="9"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q199" s="6"/>
+      <c r="R199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q200" s="6"/>
+      <c r="R200" s="9"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q201" s="6"/>
+      <c r="R201" s="9"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q202" s="6"/>
+      <c r="R202" s="9"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q203" s="6"/>
+      <c r="R203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q204" s="6"/>
+      <c r="R204" s="9"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q205" s="6"/>
+      <c r="R205" s="9"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q206" s="6"/>
+      <c r="R206" s="9"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q207" s="6"/>
+      <c r="R207" s="9"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q208" s="6"/>
+      <c r="R208" s="9"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q209" s="6"/>
+      <c r="R209" s="9"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q210" s="6"/>
+      <c r="R210" s="9"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q211" s="6"/>
+      <c r="R211" s="9"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q212" s="6"/>
+      <c r="R212" s="9"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q213" s="6"/>
+      <c r="R213" s="9"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q214" s="6"/>
+      <c r="R214" s="9"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q215" s="6"/>
+      <c r="R215" s="9"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q216" s="6"/>
+      <c r="R216" s="9"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q217" s="6"/>
+      <c r="R217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q218" s="6"/>
+      <c r="R218" s="9"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q219" s="6"/>
+      <c r="R219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q220" s="6"/>
+      <c r="R220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q221" s="6"/>
+      <c r="R221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q222" s="6"/>
+      <c r="R222" s="9"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q223" s="6"/>
+      <c r="R223" s="9"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q224" s="6"/>
+      <c r="R224" s="9"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q225" s="6"/>
+      <c r="R225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q226" s="6"/>
+      <c r="R226" s="9"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q227" s="6"/>
+      <c r="R227" s="9"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q228" s="6"/>
+      <c r="R228" s="9"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q229" s="6"/>
+      <c r="R229" s="9"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q230" s="6"/>
+      <c r="R230" s="9"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q231" s="6"/>
+      <c r="R231" s="9"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q232" s="6"/>
+      <c r="R232" s="9"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q233" s="6"/>
+      <c r="R233" s="9"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q234" s="6"/>
+      <c r="R234" s="9"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q235" s="6"/>
+      <c r="R235" s="9"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q236" s="6"/>
+      <c r="R236" s="9"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q237" s="6"/>
+      <c r="R237" s="9"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q238" s="6"/>
+      <c r="R238" s="9"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q239" s="6"/>
+      <c r="R239" s="9"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q240" s="6"/>
+      <c r="R240" s="9"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q241" s="6"/>
+      <c r="R241" s="9"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q242" s="6"/>
+      <c r="R242" s="9"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q243" s="6"/>
+      <c r="R243" s="9"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q244" s="6"/>
+      <c r="R244" s="9"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q245" s="6"/>
+      <c r="R245" s="9"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q246" s="6"/>
+      <c r="R246" s="9"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q247" s="6"/>
+      <c r="R247" s="9"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q248" s="6"/>
+      <c r="R248" s="9"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q249" s="6"/>
+      <c r="R249" s="9"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q250" s="6"/>
+      <c r="R250" s="9"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q251" s="6"/>
+      <c r="R251" s="9"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q252" s="6"/>
+      <c r="R252" s="9"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q253" s="6"/>
+      <c r="R253" s="9"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q254" s="6"/>
+      <c r="R254" s="9"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q255" s="6"/>
+      <c r="R255" s="9"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q256" s="6"/>
+      <c r="R256" s="9"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q257" s="6"/>
+      <c r="R257" s="9"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q258" s="6"/>
+      <c r="R258" s="9"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q259" s="6"/>
+      <c r="R259" s="9"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q260" s="6"/>
+      <c r="R260" s="9"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q261" s="6"/>
+      <c r="R261" s="9"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q262" s="6"/>
+      <c r="R262" s="9"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q263" s="6"/>
+      <c r="R263" s="9"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q264" s="6"/>
+      <c r="R264" s="9"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q265" s="6"/>
+      <c r="R265" s="9"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q266" s="6"/>
+      <c r="R266" s="9"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q267" s="6"/>
+      <c r="R267" s="9"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q268" s="6"/>
+      <c r="R268" s="9"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q269" s="6"/>
+      <c r="R269" s="9"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q270" s="6"/>
+      <c r="R270" s="9"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q271" s="6"/>
+      <c r="R271" s="9"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q272" s="6"/>
+      <c r="R272" s="9"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q273" s="6"/>
+      <c r="R273" s="9"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q274" s="6"/>
+      <c r="R274" s="9"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q275" s="6"/>
+      <c r="R275" s="9"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q276" s="6"/>
+      <c r="R276" s="9"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q277" s="6"/>
+      <c r="R277" s="9"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q278" s="6"/>
+      <c r="R278" s="9"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q279" s="6"/>
+      <c r="R279" s="9"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q280" s="6"/>
+      <c r="R280" s="9"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q281" s="6"/>
+      <c r="R281" s="9"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q282" s="6"/>
+      <c r="R282" s="9"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q283" s="6"/>
+      <c r="R283" s="9"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q284" s="6"/>
+      <c r="R284" s="9"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q285" s="6"/>
+      <c r="R285" s="9"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q286" s="6"/>
+      <c r="R286" s="9"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q287" s="6"/>
+      <c r="R287" s="9"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q288" s="6"/>
+      <c r="R288" s="9"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q289" s="6"/>
+      <c r="R289" s="9"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q290" s="6"/>
+      <c r="R290" s="9"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q291" s="6"/>
+      <c r="R291" s="9"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q292" s="6"/>
+      <c r="R292" s="9"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q293" s="6"/>
+      <c r="R293" s="9"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q294" s="6"/>
+      <c r="R294" s="9"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q295" s="6"/>
+      <c r="R295" s="9"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q296" s="6"/>
+      <c r="R296" s="9"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q297" s="6"/>
+      <c r="R297" s="9"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q298" s="6"/>
+      <c r="R298" s="9"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q299" s="6"/>
+      <c r="R299" s="9"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q300" s="6"/>
+      <c r="R300" s="9"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q301" s="6"/>
+      <c r="R301" s="9"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q302" s="6"/>
+      <c r="R302" s="9"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q303" s="6"/>
+      <c r="R303" s="9"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q304" s="6"/>
+      <c r="R304" s="9"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q305" s="6"/>
+      <c r="R305" s="9"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q306" s="6"/>
+      <c r="R306" s="9"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q307" s="6"/>
+      <c r="R307" s="9"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q308" s="6"/>
+      <c r="R308" s="9"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q309" s="6"/>
+      <c r="R309" s="9"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q310" s="6"/>
+      <c r="R310" s="9"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q311" s="6"/>
+      <c r="R311" s="9"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q312" s="6"/>
+      <c r="R312" s="9"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q313" s="6"/>
+      <c r="R313" s="9"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q314" s="6"/>
+      <c r="R314" s="9"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q315" s="6"/>
+      <c r="R315" s="9"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q316" s="6"/>
+      <c r="R316" s="9"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q317" s="6"/>
+      <c r="R317" s="9"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q318" s="6"/>
+      <c r="R318" s="9"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q319" s="6"/>
+      <c r="R319" s="9"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q320" s="6"/>
+      <c r="R320" s="9"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q321" s="6"/>
+      <c r="R321" s="9"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q322" s="6"/>
+      <c r="R322" s="9"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q323" s="6"/>
+      <c r="R323" s="9"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q324" s="6"/>
+      <c r="R324" s="9"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q325" s="6"/>
+      <c r="R325" s="9"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q326" s="6"/>
+      <c r="R326" s="9"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q327" s="6"/>
+      <c r="R327" s="9"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q328" s="6"/>
+      <c r="R328" s="9"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q329" s="6"/>
+      <c r="R329" s="9"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q330" s="6"/>
+      <c r="R330" s="9"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q331" s="6"/>
+      <c r="R331" s="9"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q332" s="6"/>
+      <c r="R332" s="9"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q333" s="6"/>
+      <c r="R333" s="9"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q334" s="6"/>
+      <c r="R334" s="9"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q335" s="6"/>
+      <c r="R335" s="9"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q336" s="6"/>
+      <c r="R336" s="9"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q337" s="6"/>
+      <c r="R337" s="9"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q338" s="6"/>
+      <c r="R338" s="9"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q339" s="6"/>
+      <c r="R339" s="9"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q340" s="6"/>
+      <c r="R340" s="9"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q341" s="6"/>
+      <c r="R341" s="9"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q342" s="6"/>
+      <c r="R342" s="9"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q343" s="6"/>
+      <c r="R343" s="9"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q344" s="6"/>
+      <c r="R344" s="9"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q345" s="6"/>
+      <c r="R345" s="9"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q346" s="6"/>
+      <c r="R346" s="9"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q347" s="6"/>
+      <c r="R347" s="9"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q348" s="6"/>
+      <c r="R348" s="9"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q349" s="6"/>
+      <c r="R349" s="9"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q350" s="6"/>
+      <c r="R350" s="9"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q351" s="6"/>
+      <c r="R351" s="9"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q352" s="6"/>
+      <c r="R352" s="9"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q353" s="6"/>
+      <c r="R353" s="9"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q354" s="6"/>
+      <c r="R354" s="9"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q355" s="6"/>
+      <c r="R355" s="9"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q356" s="6"/>
+      <c r="R356" s="9"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q357" s="6"/>
+      <c r="R357" s="9"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q358" s="6"/>
+      <c r="R358" s="9"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q359" s="6"/>
+      <c r="R359" s="9"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q360" s="6"/>
+      <c r="R360" s="9"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q361" s="6"/>
+      <c r="R361" s="9"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q362" s="6"/>
+      <c r="R362" s="9"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q363" s="6"/>
+      <c r="R363" s="9"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q364" s="6"/>
+      <c r="R364" s="9"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q365" s="6"/>
+      <c r="R365" s="9"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q366" s="6"/>
+      <c r="R366" s="9"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q367" s="6"/>
+      <c r="R367" s="9"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q368" s="6"/>
+      <c r="R368" s="9"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q369" s="6"/>
+      <c r="R369" s="9"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q370" s="6"/>
+      <c r="R370" s="9"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q371" s="6"/>
+      <c r="R371" s="9"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q372" s="6"/>
+      <c r="R372" s="9"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q373" s="6"/>
+      <c r="R373" s="9"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q374" s="6"/>
+      <c r="R374" s="9"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q375" s="6"/>
+      <c r="R375" s="9"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q376" s="6"/>
+      <c r="R376" s="9"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q377" s="6"/>
+      <c r="R377" s="9"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q378" s="6"/>
+      <c r="R378" s="9"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q379" s="6"/>
+      <c r="R379" s="9"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q380" s="6"/>
+      <c r="R380" s="9"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q381" s="6"/>
+      <c r="R381" s="9"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q382" s="6"/>
+      <c r="R382" s="9"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q383" s="6"/>
+      <c r="R383" s="9"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q384" s="6"/>
+      <c r="R384" s="9"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q385" s="6"/>
+      <c r="R385" s="9"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q386" s="6"/>
+      <c r="R386" s="9"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q387" s="6"/>
+      <c r="R387" s="9"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q388" s="6"/>
+      <c r="R388" s="9"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q389" s="6"/>
+      <c r="R389" s="9"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q390" s="6"/>
+      <c r="R390" s="9"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q391" s="6"/>
+      <c r="R391" s="9"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q392" s="6"/>
+      <c r="R392" s="9"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q393" s="6"/>
+      <c r="R393" s="9"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q394" s="6"/>
+      <c r="R394" s="9"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q395" s="6"/>
+      <c r="R395" s="9"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q396" s="6"/>
+      <c r="R396" s="9"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q397" s="6"/>
+      <c r="R397" s="9"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q398" s="6"/>
+      <c r="R398" s="9"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q399" s="6"/>
+      <c r="R399" s="9"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q400" s="6"/>
+      <c r="R400" s="9"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q401" s="6"/>
+      <c r="R401" s="9"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q402" s="6"/>
+      <c r="R402" s="9"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q403" s="6"/>
+      <c r="R403" s="9"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q404" s="6"/>
+      <c r="R404" s="9"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q405" s="6"/>
+      <c r="R405" s="9"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q406" s="6"/>
+      <c r="R406" s="9"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q407" s="6"/>
+      <c r="R407" s="9"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q408" s="6"/>
+      <c r="R408" s="9"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q409" s="6"/>
+      <c r="R409" s="9"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q410" s="6"/>
+      <c r="R410" s="9"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q411" s="6"/>
+      <c r="R411" s="9"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q412" s="6"/>
+      <c r="R412" s="9"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q413" s="6"/>
+      <c r="R413" s="9"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q414" s="6"/>
+      <c r="R414" s="9"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q415" s="6"/>
+      <c r="R415" s="9"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q416" s="6"/>
+      <c r="R416" s="9"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q417" s="6"/>
+      <c r="R417" s="9"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q418" s="6"/>
+      <c r="R418" s="9"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q419" s="6"/>
+      <c r="R419" s="9"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q420" s="6"/>
+      <c r="R420" s="9"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q421" s="6"/>
+      <c r="R421" s="9"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q422" s="6"/>
+      <c r="R422" s="9"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q423" s="6"/>
+      <c r="R423" s="9"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q424" s="6"/>
+      <c r="R424" s="9"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q425" s="6"/>
+      <c r="R425" s="9"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q426" s="6"/>
+      <c r="R426" s="9"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q427" s="6"/>
+      <c r="R427" s="9"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q428" s="6"/>
+      <c r="R428" s="9"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q429" s="6"/>
+      <c r="R429" s="9"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q430" s="6"/>
+      <c r="R430" s="9"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q431" s="6"/>
+      <c r="R431" s="9"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q432" s="6"/>
+      <c r="R432" s="9"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q433" s="6"/>
+      <c r="R433" s="9"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q434" s="6"/>
+      <c r="R434" s="9"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q435" s="6"/>
+      <c r="R435" s="9"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q436" s="6"/>
+      <c r="R436" s="9"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q437" s="6"/>
+      <c r="R437" s="9"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q438" s="6"/>
+      <c r="R438" s="9"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q439" s="6"/>
+      <c r="R439" s="9"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q440" s="6"/>
+      <c r="R440" s="9"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q441" s="6"/>
+      <c r="R441" s="9"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q442" s="6"/>
+      <c r="R442" s="9"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q443" s="6"/>
+      <c r="R443" s="9"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q444" s="6"/>
+      <c r="R444" s="9"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q445" s="6"/>
+      <c r="R445" s="9"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q446" s="6"/>
+      <c r="R446" s="9"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q447" s="6"/>
+      <c r="R447" s="9"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q448" s="6"/>
+      <c r="R448" s="9"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q449" s="6"/>
+      <c r="R449" s="9"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q450" s="6"/>
+      <c r="R450" s="9"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q451" s="6"/>
+      <c r="R451" s="9"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q452" s="6"/>
+      <c r="R452" s="9"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q453" s="6"/>
+      <c r="R453" s="9"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q454" s="6"/>
+      <c r="R454" s="9"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q455" s="6"/>
+      <c r="R455" s="9"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q456" s="6"/>
+      <c r="R456" s="9"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q457" s="6"/>
+      <c r="R457" s="9"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q458" s="6"/>
+      <c r="R458" s="9"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q459" s="6"/>
+      <c r="R459" s="9"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q460" s="6"/>
+      <c r="R460" s="9"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q461" s="6"/>
+      <c r="R461" s="9"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q462" s="6"/>
+      <c r="R462" s="9"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q463" s="6"/>
+      <c r="R463" s="9"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q464" s="6"/>
+      <c r="R464" s="9"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q465" s="6"/>
+      <c r="R465" s="9"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q466" s="6"/>
+      <c r="R466" s="9"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q467" s="6"/>
+      <c r="R467" s="9"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q468" s="6"/>
+      <c r="R468" s="9"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q469" s="6"/>
+      <c r="R469" s="9"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q470" s="6"/>
+      <c r="R470" s="9"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q471" s="6"/>
+      <c r="R471" s="9"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q472" s="6"/>
+      <c r="R472" s="9"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q473" s="6"/>
+      <c r="R473" s="9"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q474" s="6"/>
+      <c r="R474" s="9"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q475" s="6"/>
+      <c r="R475" s="9"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q476" s="6"/>
+      <c r="R476" s="9"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q477" s="6"/>
+      <c r="R477" s="9"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q478" s="6"/>
+      <c r="R478" s="9"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q479" s="6"/>
+      <c r="R479" s="9"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q480" s="6"/>
+      <c r="R480" s="9"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q481" s="6"/>
+      <c r="R481" s="9"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q482" s="6"/>
+      <c r="R482" s="9"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q483" s="6"/>
+      <c r="R483" s="9"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q484" s="6"/>
+      <c r="R484" s="9"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q485" s="6"/>
+      <c r="R485" s="9"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q486" s="6"/>
+      <c r="R486" s="9"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q487" s="6"/>
+      <c r="R487" s="9"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q488" s="6"/>
+      <c r="R488" s="9"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q489" s="6"/>
+      <c r="R489" s="9"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q490" s="6"/>
+      <c r="R490" s="9"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q491" s="6"/>
+      <c r="R491" s="9"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q492" s="6"/>
+      <c r="R492" s="9"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q493" s="6"/>
+      <c r="R493" s="9"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q494" s="6"/>
+      <c r="R494" s="9"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q495" s="6"/>
+      <c r="R495" s="9"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q496" s="6"/>
+      <c r="R496" s="9"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q497" s="6"/>
+      <c r="R497" s="9"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q498" s="6"/>
+      <c r="R498" s="9"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q499" s="6"/>
+      <c r="R499" s="9"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q500" s="6"/>
+      <c r="R500" s="9"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q501" s="6"/>
+      <c r="R501" s="9"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q502" s="6"/>
+      <c r="R502" s="9"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q503" s="6"/>
+      <c r="R503" s="9"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q504" s="6"/>
+      <c r="R504" s="9"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q505" s="6"/>
+      <c r="R505" s="9"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q506" s="6"/>
+      <c r="R506" s="9"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q507" s="6"/>
+      <c r="R507" s="9"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q508" s="6"/>
+      <c r="R508" s="9"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q509" s="6"/>
+      <c r="R509" s="9"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q510" s="6"/>
+      <c r="R510" s="9"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q511" s="6"/>
+      <c r="R511" s="9"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q512" s="6"/>
+      <c r="R512" s="9"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q513" s="6"/>
+      <c r="R513" s="9"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q514" s="6"/>
+      <c r="R514" s="9"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q515" s="6"/>
+      <c r="R515" s="9"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q516" s="6"/>
+      <c r="R516" s="9"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q517" s="6"/>
+      <c r="R517" s="9"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q518" s="6"/>
+      <c r="R518" s="9"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q519" s="6"/>
+      <c r="R519" s="9"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q520" s="6"/>
+      <c r="R520" s="9"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q521" s="6"/>
+      <c r="R521" s="9"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q522" s="6"/>
+      <c r="R522" s="9"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q523" s="6"/>
+      <c r="R523" s="9"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q524" s="6"/>
+      <c r="R524" s="9"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q525" s="6"/>
+      <c r="R525" s="9"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q526" s="6"/>
+      <c r="R526" s="9"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q527" s="6"/>
+      <c r="R527" s="9"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q528" s="6"/>
+      <c r="R528" s="9"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q529" s="6"/>
+      <c r="R529" s="9"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q530" s="6"/>
+      <c r="R530" s="9"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q531" s="6"/>
+      <c r="R531" s="9"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q532" s="6"/>
+      <c r="R532" s="9"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q533" s="6"/>
+      <c r="R533" s="9"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q534" s="6"/>
+      <c r="R534" s="9"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q535" s="6"/>
+      <c r="R535" s="9"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q536" s="6"/>
+      <c r="R536" s="9"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q537" s="6"/>
+      <c r="R537" s="9"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q538" s="6"/>
+      <c r="R538" s="9"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q539" s="6"/>
+      <c r="R539" s="9"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q540" s="6"/>
+      <c r="R540" s="9"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q541" s="6"/>
+      <c r="R541" s="9"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q542" s="6"/>
+      <c r="R542" s="9"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q543" s="6"/>
+      <c r="R543" s="9"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q544" s="6"/>
+      <c r="R544" s="9"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q545" s="6"/>
+      <c r="R545" s="9"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q546" s="6"/>
+      <c r="R546" s="9"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q547" s="6"/>
+      <c r="R547" s="9"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q548" s="6"/>
+      <c r="R548" s="9"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q549" s="6"/>
+      <c r="R549" s="9"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q550" s="6"/>
+      <c r="R550" s="9"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q551" s="6"/>
+      <c r="R551" s="9"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q552" s="6"/>
+      <c r="R552" s="9"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q553" s="6"/>
+      <c r="R553" s="9"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q554" s="6"/>
+      <c r="R554" s="9"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q555" s="6"/>
+      <c r="R555" s="9"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q556" s="6"/>
+      <c r="R556" s="9"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q557" s="6"/>
+      <c r="R557" s="9"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q558" s="6"/>
+      <c r="R558" s="9"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q559" s="6"/>
+      <c r="R559" s="9"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q560" s="6"/>
+      <c r="R560" s="9"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q561" s="6"/>
+      <c r="R561" s="9"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q562" s="6"/>
+      <c r="R562" s="9"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q563" s="6"/>
+      <c r="R563" s="9"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q564" s="6"/>
+      <c r="R564" s="9"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q565" s="6"/>
+      <c r="R565" s="9"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q566" s="6"/>
+      <c r="R566" s="9"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q567" s="6"/>
+      <c r="R567" s="9"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q568" s="6"/>
+      <c r="R568" s="9"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q569" s="6"/>
+      <c r="R569" s="9"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q570" s="6"/>
+      <c r="R570" s="9"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q571" s="6"/>
+      <c r="R571" s="9"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q572" s="6"/>
+      <c r="R572" s="9"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q573" s="6"/>
+      <c r="R573" s="9"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q574" s="6"/>
+      <c r="R574" s="9"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q575" s="6"/>
+      <c r="R575" s="9"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q576" s="6"/>
+      <c r="R576" s="9"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q577" s="6"/>
+      <c r="R577" s="9"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q578" s="6"/>
+      <c r="R578" s="9"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q579" s="6"/>
+      <c r="R579" s="9"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q580" s="6"/>
+      <c r="R580" s="9"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q581" s="6"/>
+      <c r="R581" s="9"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q582" s="6"/>
+      <c r="R582" s="9"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q583" s="6"/>
+      <c r="R583" s="9"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q584" s="6"/>
+      <c r="R584" s="9"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q585" s="6"/>
+      <c r="R585" s="9"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q586" s="6"/>
+      <c r="R586" s="9"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q587" s="6"/>
+      <c r="R587" s="9"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q588" s="6"/>
+      <c r="R588" s="9"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q589" s="6"/>
+      <c r="R589" s="9"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q590" s="6"/>
+      <c r="R590" s="9"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q591" s="6"/>
+      <c r="R591" s="9"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q592" s="6"/>
+      <c r="R592" s="9"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q593" s="6"/>
+      <c r="R593" s="9"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q594" s="6"/>
+      <c r="R594" s="9"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q595" s="6"/>
+      <c r="R595" s="9"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q596" s="6"/>
+      <c r="R596" s="9"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q597" s="6"/>
+      <c r="R597" s="9"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q598" s="6"/>
+      <c r="R598" s="9"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q599" s="6"/>
+      <c r="R599" s="9"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q600" s="6"/>
+      <c r="R600" s="9"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q601" s="6"/>
+      <c r="R601" s="9"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q602" s="6"/>
+      <c r="R602" s="9"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q603" s="6"/>
+      <c r="R603" s="9"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q604" s="6"/>
+      <c r="R604" s="9"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q605" s="6"/>
+      <c r="R605" s="9"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q606" s="6"/>
+      <c r="R606" s="9"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q607" s="6"/>
+      <c r="R607" s="9"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q608" s="6"/>
+      <c r="R608" s="9"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q609" s="6"/>
+      <c r="R609" s="9"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q610" s="6"/>
+      <c r="R610" s="9"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q611" s="6"/>
+      <c r="R611" s="9"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q612" s="6"/>
+      <c r="R612" s="9"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q613" s="6"/>
+      <c r="R613" s="9"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q614" s="6"/>
+      <c r="R614" s="9"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q615" s="6"/>
+      <c r="R615" s="9"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q616" s="6"/>
+      <c r="R616" s="9"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q617" s="6"/>
+      <c r="R617" s="9"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q618" s="6"/>
+      <c r="R618" s="9"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q619" s="6"/>
+      <c r="R619" s="9"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q620" s="6"/>
+      <c r="R620" s="9"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q621" s="6"/>
+      <c r="R621" s="9"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q622" s="6"/>
+      <c r="R622" s="9"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q623" s="6"/>
+      <c r="R623" s="9"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q624" s="6"/>
+      <c r="R624" s="9"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q625" s="6"/>
+      <c r="R625" s="9"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q626" s="6"/>
+      <c r="R626" s="9"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q627" s="6"/>
+      <c r="R627" s="9"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q628" s="6"/>
+      <c r="R628" s="9"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q629" s="6"/>
+      <c r="R629" s="9"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q630" s="6"/>
+      <c r="R630" s="9"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q631" s="6"/>
+      <c r="R631" s="9"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q632" s="6"/>
+      <c r="R632" s="9"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q633" s="6"/>
+      <c r="R633" s="9"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q634" s="6"/>
+      <c r="R634" s="9"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q635" s="6"/>
+      <c r="R635" s="9"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q636" s="6"/>
+      <c r="R636" s="9"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q637" s="6"/>
+      <c r="R637" s="9"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q638" s="6"/>
+      <c r="R638" s="9"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q639" s="6"/>
+      <c r="R639" s="9"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q640" s="6"/>
+      <c r="R640" s="9"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q641" s="6"/>
+      <c r="R641" s="9"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q642" s="6"/>
+      <c r="R642" s="9"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q643" s="6"/>
+      <c r="R643" s="9"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q644" s="6"/>
+      <c r="R644" s="9"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q645" s="6"/>
+      <c r="R645" s="9"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q646" s="6"/>
+      <c r="R646" s="9"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q647" s="6"/>
+      <c r="R647" s="9"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q648" s="6"/>
+      <c r="R648" s="9"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q649" s="6"/>
+      <c r="R649" s="9"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q650" s="6"/>
+      <c r="R650" s="9"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q651" s="6"/>
+      <c r="R651" s="9"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q652" s="6"/>
+      <c r="R652" s="9"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q653" s="6"/>
+      <c r="R653" s="9"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q654" s="6"/>
+      <c r="R654" s="9"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q655" s="6"/>
+      <c r="R655" s="9"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q656" s="6"/>
+      <c r="R656" s="9"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q657" s="6"/>
+      <c r="R657" s="9"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q658" s="6"/>
+      <c r="R658" s="9"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q659" s="6"/>
+      <c r="R659" s="9"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q660" s="6"/>
+      <c r="R660" s="9"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q661" s="6"/>
+      <c r="R661" s="9"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q662" s="6"/>
+      <c r="R662" s="9"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q663" s="6"/>
+      <c r="R663" s="9"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q664" s="6"/>
+      <c r="R664" s="9"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q665" s="6"/>
+      <c r="R665" s="9"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q666" s="6"/>
+      <c r="R666" s="9"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q667" s="6"/>
+      <c r="R667" s="9"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q668" s="6"/>
+      <c r="R668" s="9"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q669" s="6"/>
+      <c r="R669" s="9"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q670" s="6"/>
+      <c r="R670" s="9"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q671" s="6"/>
+      <c r="R671" s="9"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q672" s="6"/>
+      <c r="R672" s="9"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q673" s="6"/>
+      <c r="R673" s="9"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q674" s="6"/>
+      <c r="R674" s="9"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q675" s="6"/>
+      <c r="R675" s="9"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q676" s="6"/>
+      <c r="R676" s="9"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q677" s="6"/>
+      <c r="R677" s="9"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q678" s="6"/>
+      <c r="R678" s="9"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q679" s="6"/>
+      <c r="R679" s="9"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q680" s="6"/>
+      <c r="R680" s="9"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q681" s="6"/>
+      <c r="R681" s="9"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q682" s="6"/>
+      <c r="R682" s="9"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q683" s="6"/>
+      <c r="R683" s="9"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q684" s="6"/>
+      <c r="R684" s="9"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q685" s="6"/>
+      <c r="R685" s="9"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q686" s="6"/>
+      <c r="R686" s="9"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q687" s="6"/>
+      <c r="R687" s="9"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q688" s="6"/>
+      <c r="R688" s="9"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q689" s="6"/>
+      <c r="R689" s="9"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q690" s="6"/>
+      <c r="R690" s="9"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q691" s="6"/>
+      <c r="R691" s="9"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q692" s="6"/>
+      <c r="R692" s="9"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q693" s="6"/>
+      <c r="R693" s="9"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q694" s="6"/>
+      <c r="R694" s="9"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q695" s="6"/>
+      <c r="R695" s="9"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q696" s="6"/>
+      <c r="R696" s="9"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q697" s="6"/>
+      <c r="R697" s="9"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q698" s="6"/>
+      <c r="R698" s="9"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q699" s="6"/>
+      <c r="R699" s="9"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q700" s="6"/>
+      <c r="R700" s="9"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q701" s="6"/>
+      <c r="R701" s="9"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q702" s="6"/>
+      <c r="R702" s="9"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q703" s="6"/>
+      <c r="R703" s="9"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q704" s="6"/>
+      <c r="R704" s="9"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q705" s="6"/>
+      <c r="R705" s="9"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q706" s="6"/>
+      <c r="R706" s="9"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q707" s="6"/>
+      <c r="R707" s="9"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q708" s="6"/>
+      <c r="R708" s="9"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q709" s="6"/>
+      <c r="R709" s="9"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q710" s="6"/>
+      <c r="R710" s="9"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q711" s="6"/>
+      <c r="R711" s="9"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q712" s="6"/>
+      <c r="R712" s="9"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q713" s="6"/>
+      <c r="R713" s="9"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q714" s="6"/>
+      <c r="R714" s="9"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q715" s="6"/>
+      <c r="R715" s="9"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q716" s="6"/>
+      <c r="R716" s="9"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q717" s="6"/>
+      <c r="R717" s="9"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q718" s="6"/>
+      <c r="R718" s="9"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q719" s="6"/>
+      <c r="R719" s="9"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q720" s="6"/>
+      <c r="R720" s="9"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q721" s="6"/>
+      <c r="R721" s="9"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q722" s="6"/>
+      <c r="R722" s="9"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q723" s="6"/>
+      <c r="R723" s="9"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q724" s="6"/>
+      <c r="R724" s="9"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q725" s="6"/>
+      <c r="R725" s="9"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q726" s="6"/>
+      <c r="R726" s="9"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q727" s="6"/>
+      <c r="R727" s="9"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q728" s="6"/>
+      <c r="R728" s="9"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q729" s="6"/>
+      <c r="R729" s="9"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q730" s="6"/>
+      <c r="R730" s="9"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q731" s="6"/>
+      <c r="R731" s="9"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q732" s="6"/>
+      <c r="R732" s="9"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q733" s="6"/>
+      <c r="R733" s="9"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q734" s="6"/>
+      <c r="R734" s="9"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q735" s="6"/>
+      <c r="R735" s="9"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q736" s="6"/>
+      <c r="R736" s="9"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q737" s="6"/>
+      <c r="R737" s="9"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q738" s="6"/>
+      <c r="R738" s="9"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q739" s="6"/>
+      <c r="R739" s="9"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q740" s="6"/>
+      <c r="R740" s="9"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q741" s="6"/>
+      <c r="R741" s="9"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q742" s="6"/>
+      <c r="R742" s="9"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q743" s="6"/>
+      <c r="R743" s="9"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q744" s="6"/>
+      <c r="R744" s="9"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q745" s="6"/>
+      <c r="R745" s="9"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q746" s="6"/>
+      <c r="R746" s="9"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q747" s="6"/>
+      <c r="R747" s="9"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q748" s="6"/>
+      <c r="R748" s="9"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q749" s="6"/>
+      <c r="R749" s="9"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q750" s="6"/>
+      <c r="R750" s="9"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q751" s="6"/>
+      <c r="R751" s="9"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q752" s="6"/>
+      <c r="R752" s="9"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q753" s="6"/>
+      <c r="R753" s="9"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q754" s="6"/>
+      <c r="R754" s="9"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q755" s="6"/>
+      <c r="R755" s="9"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q756" s="6"/>
+      <c r="R756" s="9"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q757" s="6"/>
+      <c r="R757" s="9"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q758" s="6"/>
+      <c r="R758" s="9"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q759" s="6"/>
+      <c r="R759" s="9"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q760" s="6"/>
+      <c r="R760" s="9"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q761" s="6"/>
+      <c r="R761" s="9"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q762" s="6"/>
+      <c r="R762" s="9"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q763" s="6"/>
+      <c r="R763" s="9"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q764" s="6"/>
+      <c r="R764" s="9"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q765" s="6"/>
+      <c r="R765" s="9"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q766" s="6"/>
+      <c r="R766" s="9"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q767" s="6"/>
+      <c r="R767" s="9"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q768" s="6"/>
+      <c r="R768" s="9"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q769" s="6"/>
+      <c r="R769" s="9"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q770" s="6"/>
+      <c r="R770" s="9"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q771" s="6"/>
+      <c r="R771" s="9"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q772" s="6"/>
+      <c r="R772" s="9"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q773" s="6"/>
+      <c r="R773" s="9"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q774" s="6"/>
+      <c r="R774" s="9"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q775" s="6"/>
+      <c r="R775" s="9"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q776" s="6"/>
+      <c r="R776" s="9"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q777" s="6"/>
+      <c r="R777" s="9"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q778" s="6"/>
+      <c r="R778" s="9"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q779" s="6"/>
+      <c r="R779" s="9"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q780" s="6"/>
+      <c r="R780" s="9"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q781" s="6"/>
+      <c r="R781" s="9"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q782" s="6"/>
+      <c r="R782" s="9"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q783" s="6"/>
+      <c r="R783" s="9"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q784" s="6"/>
+      <c r="R784" s="9"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q785" s="6"/>
+      <c r="R785" s="9"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q786" s="6"/>
+      <c r="R786" s="9"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q787" s="6"/>
+      <c r="R787" s="9"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q788" s="6"/>
+      <c r="R788" s="9"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q789" s="6"/>
+      <c r="R789" s="9"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q790" s="6"/>
+      <c r="R790" s="9"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q791" s="6"/>
+      <c r="R791" s="9"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q792" s="6"/>
+      <c r="R792" s="9"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q793" s="6"/>
+      <c r="R793" s="9"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q794" s="6"/>
+      <c r="R794" s="9"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q795" s="6"/>
+      <c r="R795" s="9"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q796" s="6"/>
+      <c r="R796" s="9"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q797" s="6"/>
+      <c r="R797" s="9"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q798" s="6"/>
+      <c r="R798" s="9"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q799" s="6"/>
+      <c r="R799" s="9"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q800" s="6"/>
+      <c r="R800" s="9"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q801" s="6"/>
+      <c r="R801" s="9"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q802" s="6"/>
+      <c r="R802" s="9"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q803" s="6"/>
+      <c r="R803" s="9"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q804" s="6"/>
+      <c r="R804" s="9"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q805" s="6"/>
+      <c r="R805" s="9"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q806" s="6"/>
+      <c r="R806" s="9"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q807" s="6"/>
+      <c r="R807" s="9"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q808" s="6"/>
+      <c r="R808" s="9"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q809" s="6"/>
+      <c r="R809" s="9"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q810" s="6"/>
+      <c r="R810" s="9"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q811" s="6"/>
+      <c r="R811" s="9"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q812" s="6"/>
+      <c r="R812" s="9"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q813" s="6"/>
+      <c r="R813" s="9"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q814" s="6"/>
+      <c r="R814" s="9"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q815" s="6"/>
+      <c r="R815" s="9"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q816" s="6"/>
+      <c r="R816" s="9"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q817" s="6"/>
+      <c r="R817" s="9"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q818" s="6"/>
+      <c r="R818" s="9"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q819" s="6"/>
+      <c r="R819" s="9"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q820" s="6"/>
+      <c r="R820" s="9"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q821" s="6"/>
+      <c r="R821" s="9"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q822" s="6"/>
+      <c r="R822" s="9"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q823" s="6"/>
+      <c r="R823" s="9"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q824" s="6"/>
+      <c r="R824" s="9"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q825" s="6"/>
+      <c r="R825" s="9"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q826" s="6"/>
+      <c r="R826" s="9"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q827" s="6"/>
+      <c r="R827" s="9"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q828" s="6"/>
+      <c r="R828" s="9"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q829" s="6"/>
+      <c r="R829" s="9"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q830" s="6"/>
+      <c r="R830" s="9"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q831" s="6"/>
+      <c r="R831" s="9"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q832" s="6"/>
+      <c r="R832" s="9"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q833" s="6"/>
+      <c r="R833" s="9"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q834" s="6"/>
+      <c r="R834" s="9"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q835" s="6"/>
+      <c r="R835" s="9"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q836" s="6"/>
+      <c r="R836" s="9"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q837" s="6"/>
+      <c r="R837" s="9"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q838" s="6"/>
+      <c r="R838" s="9"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q839" s="6"/>
+      <c r="R839" s="9"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q840" s="6"/>
+      <c r="R840" s="9"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q841" s="6"/>
+      <c r="R841" s="9"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q842" s="6"/>
+      <c r="R842" s="9"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q843" s="6"/>
+      <c r="R843" s="9"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q844" s="6"/>
+      <c r="R844" s="9"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q845" s="6"/>
+      <c r="R845" s="9"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q846" s="6"/>
+      <c r="R846" s="9"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q847" s="6"/>
+      <c r="R847" s="9"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q848" s="6"/>
+      <c r="R848" s="9"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q849" s="6"/>
+      <c r="R849" s="9"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q850" s="6"/>
+      <c r="R850" s="9"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q851" s="6"/>
+      <c r="R851" s="9"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q852" s="6"/>
+      <c r="R852" s="9"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q853" s="6"/>
+      <c r="R853" s="9"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q854" s="6"/>
+      <c r="R854" s="9"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q855" s="6"/>
+      <c r="R855" s="9"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q856" s="6"/>
+      <c r="R856" s="9"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q857" s="6"/>
+      <c r="R857" s="9"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q858" s="6"/>
+      <c r="R858" s="9"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q859" s="6"/>
+      <c r="R859" s="9"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q860" s="6"/>
+      <c r="R860" s="9"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q861" s="6"/>
+      <c r="R861" s="9"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q862" s="6"/>
+      <c r="R862" s="9"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q863" s="6"/>
+      <c r="R863" s="9"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q864" s="6"/>
+      <c r="R864" s="9"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q865" s="6"/>
+      <c r="R865" s="9"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q866" s="6"/>
+      <c r="R866" s="9"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q867" s="6"/>
+      <c r="R867" s="9"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q868" s="6"/>
+      <c r="R868" s="9"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q869" s="6"/>
+      <c r="R869" s="9"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q870" s="6"/>
+      <c r="R870" s="9"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q871" s="6"/>
+      <c r="R871" s="9"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q872" s="6"/>
+      <c r="R872" s="9"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q873" s="6"/>
+      <c r="R873" s="9"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q874" s="6"/>
+      <c r="R874" s="9"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q875" s="6"/>
+      <c r="R875" s="9"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q876" s="6"/>
+      <c r="R876" s="9"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q877" s="6"/>
+      <c r="R877" s="9"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q878" s="6"/>
+      <c r="R878" s="9"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q879" s="6"/>
+      <c r="R879" s="9"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q880" s="6"/>
+      <c r="R880" s="9"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q881" s="6"/>
+      <c r="R881" s="9"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q882" s="6"/>
+      <c r="R882" s="9"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q883" s="6"/>
+      <c r="R883" s="9"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q884" s="6"/>
+      <c r="R884" s="9"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q885" s="6"/>
+      <c r="R885" s="9"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q886" s="6"/>
+      <c r="R886" s="9"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q887" s="6"/>
+      <c r="R887" s="9"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q888" s="6"/>
+      <c r="R888" s="9"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q889" s="6"/>
+      <c r="R889" s="9"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q890" s="6"/>
+      <c r="R890" s="9"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q891" s="6"/>
+      <c r="R891" s="9"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q892" s="6"/>
+      <c r="R892" s="9"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q893" s="6"/>
+      <c r="R893" s="9"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q894" s="6"/>
+      <c r="R894" s="9"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q895" s="6"/>
+      <c r="R895" s="9"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q896" s="6"/>
+      <c r="R896" s="9"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q897" s="6"/>
+      <c r="R897" s="9"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q898" s="6"/>
+      <c r="R898" s="9"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q899" s="6"/>
+      <c r="R899" s="9"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q900" s="6"/>
+      <c r="R900" s="9"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q901" s="6"/>
+      <c r="R901" s="9"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q902" s="6"/>
+      <c r="R902" s="9"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q903" s="6"/>
+      <c r="R903" s="9"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q904" s="6"/>
+      <c r="R904" s="9"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q905" s="6"/>
+      <c r="R905" s="9"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q906" s="6"/>
+      <c r="R906" s="9"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q907" s="6"/>
+      <c r="R907" s="9"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q908" s="6"/>
+      <c r="R908" s="9"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q909" s="6"/>
+      <c r="R909" s="9"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q910" s="6"/>
+      <c r="R910" s="9"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q911" s="6"/>
+      <c r="R911" s="9"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q912" s="6"/>
+      <c r="R912" s="9"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q913" s="6"/>
+      <c r="R913" s="9"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q914" s="6"/>
+      <c r="R914" s="9"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q915" s="6"/>
+      <c r="R915" s="9"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q916" s="6"/>
+      <c r="R916" s="9"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q917" s="6"/>
+      <c r="R917" s="9"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q918" s="6"/>
+      <c r="R918" s="9"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q919" s="6"/>
+      <c r="R919" s="9"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q920" s="6"/>
+      <c r="R920" s="9"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q921" s="6"/>
+      <c r="R921" s="9"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q922" s="6"/>
+      <c r="R922" s="9"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q923" s="6"/>
+      <c r="R923" s="9"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q924" s="6"/>
+      <c r="R924" s="9"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q925" s="6"/>
+      <c r="R925" s="9"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q926" s="6"/>
+      <c r="R926" s="9"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q927" s="6"/>
+      <c r="R927" s="9"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q928" s="6"/>
+      <c r="R928" s="9"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q929" s="6"/>
+      <c r="R929" s="9"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q930" s="6"/>
+      <c r="R930" s="9"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q931" s="6"/>
+      <c r="R931" s="9"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q932" s="6"/>
+      <c r="R932" s="9"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q933" s="6"/>
+      <c r="R933" s="9"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q934" s="6"/>
+      <c r="R934" s="9"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q935" s="6"/>
+      <c r="R935" s="9"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q936" s="6"/>
+      <c r="R936" s="9"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q937" s="6"/>
+      <c r="R937" s="9"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q938" s="6"/>
+      <c r="R938" s="9"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q939" s="6"/>
+      <c r="R939" s="9"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q940" s="6"/>
+      <c r="R940" s="9"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q941" s="6"/>
+      <c r="R941" s="9"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q942" s="6"/>
+      <c r="R942" s="9"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q943" s="6"/>
+      <c r="R943" s="9"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q944" s="6"/>
+      <c r="R944" s="9"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q945" s="6"/>
+      <c r="R945" s="9"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q946" s="6"/>
+      <c r="R946" s="9"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q947" s="6"/>
+      <c r="R947" s="9"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q948" s="6"/>
+      <c r="R948" s="9"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q949" s="6"/>
+      <c r="R949" s="9"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q950" s="6"/>
+      <c r="R950" s="9"/>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q951" s="6"/>
+      <c r="R951" s="9"/>
     </row>
     <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q952" s="6"/>
+      <c r="R952" s="9"/>
     </row>
     <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q953" s="6"/>
+      <c r="R953" s="9"/>
     </row>
     <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q954" s="6"/>
+      <c r="R954" s="9"/>
     </row>
     <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q955" s="6"/>
+      <c r="R955" s="9"/>
     </row>
     <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q956" s="6"/>
+      <c r="R956" s="9"/>
     </row>
     <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q957" s="6"/>
+      <c r="R957" s="9"/>
     </row>
     <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q958" s="6"/>
+      <c r="R958" s="9"/>
     </row>
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q959" s="6"/>
+      <c r="R959" s="9"/>
     </row>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q960" s="6"/>
+      <c r="R960" s="9"/>
     </row>
     <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q961" s="6"/>
+      <c r="R961" s="9"/>
     </row>
     <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q962" s="6"/>
+      <c r="R962" s="9"/>
     </row>
     <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q963" s="6"/>
+      <c r="R963" s="9"/>
     </row>
     <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q964" s="6"/>
+      <c r="R964" s="9"/>
     </row>
     <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q965" s="6"/>
+      <c r="R965" s="9"/>
     </row>
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q966" s="6"/>
+      <c r="R966" s="9"/>
     </row>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q967" s="6"/>
+      <c r="R967" s="9"/>
     </row>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q968" s="6"/>
+      <c r="R968" s="9"/>
     </row>
     <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q969" s="6"/>
+      <c r="R969" s="9"/>
     </row>
     <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q970" s="6"/>
+      <c r="R970" s="9"/>
     </row>
     <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q971" s="6"/>
+      <c r="R971" s="9"/>
     </row>
     <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q972" s="6"/>
+      <c r="R972" s="9"/>
     </row>
     <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q973" s="6"/>
+      <c r="R973" s="9"/>
     </row>
     <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q974" s="6"/>
+      <c r="R974" s="9"/>
     </row>
     <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q975" s="6"/>
+      <c r="R975" s="9"/>
     </row>
     <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q976" s="6"/>
+      <c r="R976" s="9"/>
     </row>
     <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q977" s="6"/>
+      <c r="R977" s="9"/>
     </row>
     <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q978" s="6"/>
+      <c r="R978" s="9"/>
     </row>
     <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q979" s="6"/>
+      <c r="R979" s="9"/>
     </row>
     <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q980" s="6"/>
+      <c r="R980" s="9"/>
     </row>
     <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q981" s="6"/>
+      <c r="R981" s="9"/>
     </row>
     <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q982" s="6"/>
+      <c r="R982" s="9"/>
     </row>
     <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q983" s="6"/>
+      <c r="R983" s="9"/>
     </row>
     <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q984" s="6"/>
+      <c r="R984" s="9"/>
     </row>
     <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q985" s="6"/>
+      <c r="R985" s="9"/>
     </row>
     <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q986" s="6"/>
+      <c r="R986" s="9"/>
     </row>
     <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q987" s="6"/>
+      <c r="R987" s="9"/>
     </row>
     <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q988" s="6"/>
+      <c r="R988" s="9"/>
     </row>
     <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q989" s="6"/>
+      <c r="R989" s="9"/>
     </row>
     <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q990" s="6"/>
+      <c r="R990" s="9"/>
     </row>
     <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q991" s="6"/>
+      <c r="R991" s="9"/>
     </row>
     <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q992" s="6"/>
+      <c r="R992" s="9"/>
     </row>
     <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q993" s="6"/>
+      <c r="R993" s="9"/>
     </row>
     <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q994" s="6"/>
+      <c r="R994" s="9"/>
     </row>
     <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q995" s="6"/>
+      <c r="R995" s="9"/>
     </row>
     <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q996" s="6"/>
+      <c r="R996" s="9"/>
     </row>
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q997" s="6"/>
+      <c r="R997" s="9"/>
     </row>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q998" s="6"/>
+      <c r="R998" s="9"/>
     </row>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q999" s="6"/>
+      <c r="R999" s="9"/>
     </row>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q1000" s="6"/>
+      <c r="R1000" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R16" r:id="rId1" display="https://ztf.snad.space/dr17/view/804211100018212"/>
+    <hyperlink ref="S16" r:id="rId1" display="good LB. J-K = 11.375 - 10.557 = 0.818..  https://ztf.snad.space/dr17/view/804211100018212"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4446,4 +4678,364 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.22"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>2445642.368</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>2445643.368</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>2445644.368</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>2445645.368</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>2445646.368</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>2445647.368</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>2445648.368</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2445649.368</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2445650.368</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>2445651.368</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/dirlit/webpage/17stars1.xlsx
+++ b/dirlit/webpage/17stars1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="195">
   <si>
     <t xml:space="preserve">Paper ID</t>
   </si>
@@ -479,7 +479,13 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">mpa_data_star_1.dat,</t>
+    <t xml:space="preserve">star_1_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpa_data_star_1.dat ZTF_zg_data_star_1.txt ZTF_zr_data_star_1.txt</t>
   </si>
   <si>
     <t xml:space="preserve">DR3 1989573201075344384</t>
@@ -488,36 +494,78 @@
     <t xml:space="preserve">22 42 37.33, +50 37 37.7</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_2_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpa_data_star_1.dat ZTF_zg_data_star_1.txt ZTF_zr_data_star_1.txt ZTF_zi_data_star_1.txt </t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 1989476753287806720</t>
   </si>
   <si>
     <t xml:space="preserve">22 42 16.89, +50 04 04.6</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_3_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_3.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 1989494998308806784</t>
   </si>
   <si>
     <t xml:space="preserve">22 41 47.89, +50 17 10.8</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_5_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpa_data_star_1.dat ZTF_zg_data_star_1.txt ZTF_zr_data_star_1.txt </t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 2007164768650338816</t>
   </si>
   <si>
     <t xml:space="preserve">22 51 05.66, +57 33 21.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_6_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_6.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 2007136799822425600</t>
   </si>
   <si>
     <t xml:space="preserve">22 48 55.09, +57 15 19.8</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_7_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_7.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 2002954188866388096</t>
   </si>
   <si>
     <t xml:space="preserve">22 56 35.78, +55 26 53.9</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_8_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_8.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 2007290422213768192</t>
   </si>
   <si>
@@ -527,16 +575,37 @@
     <t xml:space="preserve">LB</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_10_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_10.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 2006886386051006464</t>
   </si>
   <si>
     <t xml:space="preserve">22 36 17.66, +56 48 04.7</t>
   </si>
   <si>
+    <t xml:space="preserve">Star_12_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_12.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mpa_data_star_1.dat </t>
+  </si>
+  <si>
     <t xml:space="preserve">DR3 2009804111948440064</t>
   </si>
   <si>
     <t xml:space="preserve">22 57 45.30, +56 24 24.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star_15_lc.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding_chart_star_15.jpeg</t>
   </si>
 </sst>
 </file>
@@ -552,6 +621,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -573,6 +643,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -683,11 +754,11 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.56"/>
@@ -4687,18 +4758,19 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,13 +4848,19 @@
       <c r="L2" s="0" t="s">
         <v>152</v>
       </c>
+      <c r="M2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>25</v>
@@ -4805,13 +4883,22 @@
       <c r="J3" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>53</v>
@@ -4825,22 +4912,28 @@
       <c r="G4" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0.99</v>
-      </c>
       <c r="I4" s="0" t="n">
         <v>2445644.368</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L4" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>59</v>
@@ -4863,13 +4956,22 @@
       <c r="J5" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>53</v>
@@ -4889,13 +4991,22 @@
       <c r="J6" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>59</v>
@@ -4918,13 +5029,22 @@
       <c r="J7" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L7" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>59</v>
@@ -4947,16 +5067,25 @@
       <c r="J8" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>15.3</v>
@@ -4973,13 +5102,22 @@
       <c r="J9" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L9" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>25</v>
@@ -5002,13 +5140,22 @@
       <c r="J10" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="L10" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>53</v>
@@ -5027,6 +5174,15 @@
       </c>
       <c r="J11" s="0" t="s">
         <v>140</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
